--- a/tests/input/dummy_data_with_legend_and_multiple_tabs.xlsx
+++ b/tests/input/dummy_data_with_legend_and_multiple_tabs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\stage\CRISP\tests\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566721BB-98B2-4AD2-B58A-689CC02BE1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF859934-423C-4CFC-B645-1F1ACF9C567E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{7A9A6D38-CBB6-43D5-AC81-B65459199336}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7A9A6D38-CBB6-43D5-AC81-B65459199336}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="3" r:id="rId1"/>
@@ -40,19 +40,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="330">
   <si>
-    <t>Leuko</t>
-  </si>
-  <si>
-    <t>Hb</t>
-  </si>
-  <si>
     <t>MCV</t>
-  </si>
-  <si>
-    <t>Trom</t>
-  </si>
-  <si>
-    <t>BSE</t>
   </si>
   <si>
     <t>Age</t>
@@ -415,13 +403,7 @@
     <t>RF</t>
   </si>
   <si>
-    <t>aCCP</t>
-  </si>
-  <si>
     <t>Sex</t>
-  </si>
-  <si>
-    <t>PATNR</t>
   </si>
   <si>
     <t>F</t>
@@ -1029,12 +1011,30 @@
   <si>
     <t>DUMMY100</t>
   </si>
+  <si>
+    <t>Leukocytes</t>
+  </si>
+  <si>
+    <t>Hemoglobin</t>
+  </si>
+  <si>
+    <t>Thrombocytes</t>
+  </si>
+  <si>
+    <t>ESR</t>
+  </si>
+  <si>
+    <t>ACPA</t>
+  </si>
+  <si>
+    <t>Patient number</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1046,6 +1046,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1071,9 +1078,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1410,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2548E32-2DBD-444F-8792-2C447E9F6545}">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,1043 +1430,1043 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>326</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>327</v>
       </c>
       <c r="C7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>328</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C75" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C77" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C78" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C80" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C82" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C84" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C87" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C89" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C90" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C97" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C98" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C99" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C101" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C104" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C106" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C107" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C108" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C109" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C110" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C111" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C114" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C115" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C116" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C117" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C118" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C119" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C121" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C122" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C123" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C124" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C125" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C126" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C127" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C128" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C129" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2471,395 +2479,395 @@
   <dimension ref="A1:DX101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:DX101"/>
+      <selection sqref="A1:DX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BB1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BC1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BD1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BE1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BF1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BG1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BH1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BI1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BK1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BL1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BM1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BN1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BO1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BP1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BR1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BS1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BT1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BU1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BV1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BW1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BX1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BY1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CA1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CB1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CC1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CD1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CE1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CF1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CG1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CH1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CI1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CK1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CL1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CM1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CN1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CO1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CP1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CR1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CS1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CT1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CU1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CV1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CW1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CX1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CY1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="DA1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DB1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DC1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DD1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DE1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DF1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DG1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DH1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DI1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DJ1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DK1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DL1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DM1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DN1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DO1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DP1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DR1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DS1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DT1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DU1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DV1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="DW1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>127</v>
+      <c r="DX1" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:128" x14ac:dyDescent="0.25">
@@ -3242,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="DW2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.25">
@@ -3628,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:128" x14ac:dyDescent="0.25">
@@ -4014,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="DW4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.25">
@@ -4400,10 +4408,10 @@
         <v>0</v>
       </c>
       <c r="DW5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.25">
@@ -4786,10 +4794,10 @@
         <v>0</v>
       </c>
       <c r="DW6" t="s">
+        <v>122</v>
+      </c>
+      <c r="DX6" t="s">
         <v>128</v>
-      </c>
-      <c r="DX6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.25">
@@ -5172,10 +5180,10 @@
         <v>1</v>
       </c>
       <c r="DW7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:128" x14ac:dyDescent="0.25">
@@ -5558,10 +5566,10 @@
         <v>1</v>
       </c>
       <c r="DW8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.25">
@@ -5944,10 +5952,10 @@
         <v>0</v>
       </c>
       <c r="DW9" t="s">
+        <v>125</v>
+      </c>
+      <c r="DX9" t="s">
         <v>131</v>
-      </c>
-      <c r="DX9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.25">
@@ -6330,10 +6338,10 @@
         <v>1</v>
       </c>
       <c r="DW10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:128" x14ac:dyDescent="0.25">
@@ -6716,10 +6724,10 @@
         <v>0</v>
       </c>
       <c r="DW11" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:128" x14ac:dyDescent="0.25">
@@ -7102,10 +7110,10 @@
         <v>1</v>
       </c>
       <c r="DW12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX12" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:128" x14ac:dyDescent="0.25">
@@ -7488,10 +7496,10 @@
         <v>0</v>
       </c>
       <c r="DW13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:128" x14ac:dyDescent="0.25">
@@ -7874,10 +7882,10 @@
         <v>0</v>
       </c>
       <c r="DW14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX14" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:128" x14ac:dyDescent="0.25">
@@ -8260,10 +8268,10 @@
         <v>1</v>
       </c>
       <c r="DW15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:128" x14ac:dyDescent="0.25">
@@ -8646,10 +8654,10 @@
         <v>1</v>
       </c>
       <c r="DW16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:128" x14ac:dyDescent="0.25">
@@ -9032,10 +9040,10 @@
         <v>1</v>
       </c>
       <c r="DW17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.25">
@@ -9418,10 +9426,10 @@
         <v>1</v>
       </c>
       <c r="DW18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:128" x14ac:dyDescent="0.25">
@@ -9804,10 +9812,10 @@
         <v>1</v>
       </c>
       <c r="DW19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX19" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:128" x14ac:dyDescent="0.25">
@@ -10190,10 +10198,10 @@
         <v>1</v>
       </c>
       <c r="DW20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.25">
@@ -10576,10 +10584,10 @@
         <v>0</v>
       </c>
       <c r="DW21" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX21" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:128" x14ac:dyDescent="0.25">
@@ -10962,10 +10970,10 @@
         <v>0</v>
       </c>
       <c r="DW22" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX22" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:128" x14ac:dyDescent="0.25">
@@ -11348,10 +11356,10 @@
         <v>1</v>
       </c>
       <c r="DW23" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX23" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:128" x14ac:dyDescent="0.25">
@@ -11734,10 +11742,10 @@
         <v>0</v>
       </c>
       <c r="DW24" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX24" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.25">
@@ -12120,10 +12128,10 @@
         <v>0</v>
       </c>
       <c r="DW25" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX25" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:128" x14ac:dyDescent="0.25">
@@ -12506,10 +12514,10 @@
         <v>0</v>
       </c>
       <c r="DW26" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX26" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.25">
@@ -12892,10 +12900,10 @@
         <v>0</v>
       </c>
       <c r="DW27" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX27" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:128" x14ac:dyDescent="0.25">
@@ -13278,10 +13286,10 @@
         <v>0</v>
       </c>
       <c r="DW28" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX28" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.25">
@@ -13664,10 +13672,10 @@
         <v>1</v>
       </c>
       <c r="DW29" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX29" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.25">
@@ -14050,10 +14058,10 @@
         <v>0</v>
       </c>
       <c r="DW30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX30" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.25">
@@ -14436,10 +14444,10 @@
         <v>0</v>
       </c>
       <c r="DW31" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX31" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:128" x14ac:dyDescent="0.25">
@@ -14822,10 +14830,10 @@
         <v>1</v>
       </c>
       <c r="DW32" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX32" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.25">
@@ -15208,10 +15216,10 @@
         <v>0</v>
       </c>
       <c r="DW33" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX33" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.25">
@@ -15594,10 +15602,10 @@
         <v>1</v>
       </c>
       <c r="DW34" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:128" x14ac:dyDescent="0.25">
@@ -15980,10 +15988,10 @@
         <v>1</v>
       </c>
       <c r="DW35" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX35" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:128" x14ac:dyDescent="0.25">
@@ -16366,10 +16374,10 @@
         <v>0</v>
       </c>
       <c r="DW36" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX36" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:128" x14ac:dyDescent="0.25">
@@ -16752,10 +16760,10 @@
         <v>0</v>
       </c>
       <c r="DW37" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX37" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:128" x14ac:dyDescent="0.25">
@@ -17138,10 +17146,10 @@
         <v>0</v>
       </c>
       <c r="DW38" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX38" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:128" x14ac:dyDescent="0.25">
@@ -17524,10 +17532,10 @@
         <v>0</v>
       </c>
       <c r="DW39" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX39" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:128" x14ac:dyDescent="0.25">
@@ -17910,10 +17918,10 @@
         <v>0</v>
       </c>
       <c r="DW40" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX40" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:128" x14ac:dyDescent="0.25">
@@ -18296,10 +18304,10 @@
         <v>1</v>
       </c>
       <c r="DW41" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX41" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.25">
@@ -18682,10 +18690,10 @@
         <v>0</v>
       </c>
       <c r="DW42" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX42" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:128" x14ac:dyDescent="0.25">
@@ -19068,10 +19076,10 @@
         <v>1</v>
       </c>
       <c r="DW43" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:128" x14ac:dyDescent="0.25">
@@ -19454,10 +19462,10 @@
         <v>0</v>
       </c>
       <c r="DW44" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX44" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.25">
@@ -19840,10 +19848,10 @@
         <v>0</v>
       </c>
       <c r="DW45" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX45" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:128" x14ac:dyDescent="0.25">
@@ -20226,10 +20234,10 @@
         <v>0</v>
       </c>
       <c r="DW46" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX46" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:128" x14ac:dyDescent="0.25">
@@ -20612,10 +20620,10 @@
         <v>0</v>
       </c>
       <c r="DW47" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX47" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:128" x14ac:dyDescent="0.25">
@@ -20998,10 +21006,10 @@
         <v>0</v>
       </c>
       <c r="DW48" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX48" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:128" x14ac:dyDescent="0.25">
@@ -21384,10 +21392,10 @@
         <v>0</v>
       </c>
       <c r="DW49" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX49" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:128" x14ac:dyDescent="0.25">
@@ -21770,10 +21778,10 @@
         <v>0</v>
       </c>
       <c r="DW50" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX50" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:128" x14ac:dyDescent="0.25">
@@ -22156,10 +22164,10 @@
         <v>1</v>
       </c>
       <c r="DW51" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX51" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:128" x14ac:dyDescent="0.25">
@@ -22542,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="DW52" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX52" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:128" x14ac:dyDescent="0.25">
@@ -22928,10 +22936,10 @@
         <v>0</v>
       </c>
       <c r="DW53" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX53" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:128" x14ac:dyDescent="0.25">
@@ -23314,10 +23322,10 @@
         <v>1</v>
       </c>
       <c r="DW54" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX54" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:128" x14ac:dyDescent="0.25">
@@ -23700,10 +23708,10 @@
         <v>1</v>
       </c>
       <c r="DW55" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX55" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:128" x14ac:dyDescent="0.25">
@@ -24086,10 +24094,10 @@
         <v>1</v>
       </c>
       <c r="DW56" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX56" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:128" x14ac:dyDescent="0.25">
@@ -24472,10 +24480,10 @@
         <v>0</v>
       </c>
       <c r="DW57" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX57" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:128" x14ac:dyDescent="0.25">
@@ -24858,10 +24866,10 @@
         <v>0</v>
       </c>
       <c r="DW58" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX58" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:128" x14ac:dyDescent="0.25">
@@ -25244,10 +25252,10 @@
         <v>0</v>
       </c>
       <c r="DW59" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX59" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:128" x14ac:dyDescent="0.25">
@@ -25630,10 +25638,10 @@
         <v>0</v>
       </c>
       <c r="DW60" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX60" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:128" x14ac:dyDescent="0.25">
@@ -26016,10 +26024,10 @@
         <v>1</v>
       </c>
       <c r="DW61" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX61" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:128" x14ac:dyDescent="0.25">
@@ -26402,10 +26410,10 @@
         <v>0</v>
       </c>
       <c r="DW62" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX62" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:128" x14ac:dyDescent="0.25">
@@ -26788,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="DW63" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX63" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:128" x14ac:dyDescent="0.25">
@@ -27174,10 +27182,10 @@
         <v>1</v>
       </c>
       <c r="DW64" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX64" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:128" x14ac:dyDescent="0.25">
@@ -27560,10 +27568,10 @@
         <v>1</v>
       </c>
       <c r="DW65" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX65" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:128" x14ac:dyDescent="0.25">
@@ -27946,10 +27954,10 @@
         <v>0</v>
       </c>
       <c r="DW66" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX66" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:128" x14ac:dyDescent="0.25">
@@ -28332,10 +28340,10 @@
         <v>0</v>
       </c>
       <c r="DW67" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX67" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:128" x14ac:dyDescent="0.25">
@@ -28718,10 +28726,10 @@
         <v>0</v>
       </c>
       <c r="DW68" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX68" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:128" x14ac:dyDescent="0.25">
@@ -29104,10 +29112,10 @@
         <v>0</v>
       </c>
       <c r="DW69" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX69" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:128" x14ac:dyDescent="0.25">
@@ -29490,10 +29498,10 @@
         <v>0</v>
       </c>
       <c r="DW70" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX70" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:128" x14ac:dyDescent="0.25">
@@ -29876,10 +29884,10 @@
         <v>0</v>
       </c>
       <c r="DW71" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX71" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:128" x14ac:dyDescent="0.25">
@@ -30262,10 +30270,10 @@
         <v>1</v>
       </c>
       <c r="DW72" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX72" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:128" x14ac:dyDescent="0.25">
@@ -30648,10 +30656,10 @@
         <v>1</v>
       </c>
       <c r="DW73" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX73" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:128" x14ac:dyDescent="0.25">
@@ -31034,10 +31042,10 @@
         <v>1</v>
       </c>
       <c r="DW74" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX74" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:128" x14ac:dyDescent="0.25">
@@ -31420,10 +31428,10 @@
         <v>0</v>
       </c>
       <c r="DW75" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX75" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:128" x14ac:dyDescent="0.25">
@@ -31806,10 +31814,10 @@
         <v>0</v>
       </c>
       <c r="DW76" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX76" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:128" x14ac:dyDescent="0.25">
@@ -32192,10 +32200,10 @@
         <v>1</v>
       </c>
       <c r="DW77" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX77" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:128" x14ac:dyDescent="0.25">
@@ -32578,10 +32586,10 @@
         <v>0</v>
       </c>
       <c r="DW78" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX78" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:128" x14ac:dyDescent="0.25">
@@ -32964,10 +32972,10 @@
         <v>1</v>
       </c>
       <c r="DW79" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX79" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:128" x14ac:dyDescent="0.25">
@@ -33350,10 +33358,10 @@
         <v>0</v>
       </c>
       <c r="DW80" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX80" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.25">
@@ -33736,10 +33744,10 @@
         <v>0</v>
       </c>
       <c r="DW81" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX81" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.25">
@@ -34122,10 +34130,10 @@
         <v>1</v>
       </c>
       <c r="DW82" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX82" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:128" x14ac:dyDescent="0.25">
@@ -34508,10 +34516,10 @@
         <v>1</v>
       </c>
       <c r="DW83" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX83" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:128" x14ac:dyDescent="0.25">
@@ -34894,10 +34902,10 @@
         <v>1</v>
       </c>
       <c r="DW84" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX84" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:128" x14ac:dyDescent="0.25">
@@ -35280,10 +35288,10 @@
         <v>0</v>
       </c>
       <c r="DW85" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX85" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:128" x14ac:dyDescent="0.25">
@@ -35666,10 +35674,10 @@
         <v>1</v>
       </c>
       <c r="DW86" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX86" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:128" x14ac:dyDescent="0.25">
@@ -36052,10 +36060,10 @@
         <v>1</v>
       </c>
       <c r="DW87" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX87" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:128" x14ac:dyDescent="0.25">
@@ -36438,10 +36446,10 @@
         <v>0</v>
       </c>
       <c r="DW88" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX88" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:128" x14ac:dyDescent="0.25">
@@ -36824,10 +36832,10 @@
         <v>1</v>
       </c>
       <c r="DW89" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX89" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.25">
@@ -37210,10 +37218,10 @@
         <v>0</v>
       </c>
       <c r="DW90" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX90" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:128" x14ac:dyDescent="0.25">
@@ -37596,10 +37604,10 @@
         <v>0</v>
       </c>
       <c r="DW91" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX91" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92" spans="1:128" x14ac:dyDescent="0.25">
@@ -37982,10 +37990,10 @@
         <v>1</v>
       </c>
       <c r="DW92" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX92" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.25">
@@ -38368,10 +38376,10 @@
         <v>1</v>
       </c>
       <c r="DW93" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX93" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:128" x14ac:dyDescent="0.25">
@@ -38754,10 +38762,10 @@
         <v>0</v>
       </c>
       <c r="DW94" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX94" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:128" x14ac:dyDescent="0.25">
@@ -39140,10 +39148,10 @@
         <v>1</v>
       </c>
       <c r="DW95" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX95" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:128" x14ac:dyDescent="0.25">
@@ -39526,10 +39534,10 @@
         <v>1</v>
       </c>
       <c r="DW96" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX96" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:128" x14ac:dyDescent="0.25">
@@ -39912,10 +39920,10 @@
         <v>1</v>
       </c>
       <c r="DW97" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX97" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.25">
@@ -40298,10 +40306,10 @@
         <v>0</v>
       </c>
       <c r="DW98" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX98" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:128" x14ac:dyDescent="0.25">
@@ -40684,10 +40692,10 @@
         <v>0</v>
       </c>
       <c r="DW99" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX99" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.25">
@@ -41070,10 +41078,10 @@
         <v>1</v>
       </c>
       <c r="DW100" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX100" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.25">
@@ -41456,10 +41464,10 @@
         <v>1</v>
       </c>
       <c r="DW101" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX101" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -41471,396 +41479,396 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583D3E1D-BFF6-45D2-B6F5-3392A6BB823E}">
   <dimension ref="A1:DX101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DG2" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="DV12" sqref="DV12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BB1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BC1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BD1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BE1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BF1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BG1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BH1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BI1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BK1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BL1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BM1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BN1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BO1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BP1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BR1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BS1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BT1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BU1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BV1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BW1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BX1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BY1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CA1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CB1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CC1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CD1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CE1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CF1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CG1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CH1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CI1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CK1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CL1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CM1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CN1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CO1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CP1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CR1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CS1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CT1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CU1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CV1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CW1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CX1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CY1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="DA1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DB1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DC1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DD1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DE1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DF1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DG1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DH1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DI1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DJ1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DK1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DL1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DM1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DN1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DO1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DP1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DR1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DS1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DT1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DU1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DV1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="DW1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>127</v>
+      <c r="DX1" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:128" x14ac:dyDescent="0.25">
@@ -42243,10 +42251,10 @@
         <v>0</v>
       </c>
       <c r="DW2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.25">
@@ -42629,10 +42637,10 @@
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:128" x14ac:dyDescent="0.25">
@@ -43015,10 +43023,10 @@
         <v>1</v>
       </c>
       <c r="DW4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.25">
@@ -43401,10 +43409,10 @@
         <v>1</v>
       </c>
       <c r="DW5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.25">
@@ -43787,10 +43795,10 @@
         <v>0</v>
       </c>
       <c r="DW6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.25">
@@ -44173,10 +44181,10 @@
         <v>0</v>
       </c>
       <c r="DW7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:128" x14ac:dyDescent="0.25">
@@ -44559,10 +44567,10 @@
         <v>0</v>
       </c>
       <c r="DW8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.25">
@@ -44945,10 +44953,10 @@
         <v>1</v>
       </c>
       <c r="DW9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.25">
@@ -45331,10 +45339,10 @@
         <v>1</v>
       </c>
       <c r="DW10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:128" x14ac:dyDescent="0.25">
@@ -45717,10 +45725,10 @@
         <v>0</v>
       </c>
       <c r="DW11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX11" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:128" x14ac:dyDescent="0.25">
@@ -46103,10 +46111,10 @@
         <v>0</v>
       </c>
       <c r="DW12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX12" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:128" x14ac:dyDescent="0.25">
@@ -46489,10 +46497,10 @@
         <v>0</v>
       </c>
       <c r="DW13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX13" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:128" x14ac:dyDescent="0.25">
@@ -46875,10 +46883,10 @@
         <v>0</v>
       </c>
       <c r="DW14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX14" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:128" x14ac:dyDescent="0.25">
@@ -47261,10 +47269,10 @@
         <v>0</v>
       </c>
       <c r="DW15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX15" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:128" x14ac:dyDescent="0.25">
@@ -47647,10 +47655,10 @@
         <v>0</v>
       </c>
       <c r="DW16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX16" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:128" x14ac:dyDescent="0.25">
@@ -48033,10 +48041,10 @@
         <v>0</v>
       </c>
       <c r="DW17" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX17" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.25">
@@ -48419,10 +48427,10 @@
         <v>0</v>
       </c>
       <c r="DW18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX18" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:128" x14ac:dyDescent="0.25">
@@ -48805,10 +48813,10 @@
         <v>0</v>
       </c>
       <c r="DW19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX19" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:128" x14ac:dyDescent="0.25">
@@ -49191,10 +49199,10 @@
         <v>1</v>
       </c>
       <c r="DW20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX20" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.25">
@@ -49577,10 +49585,10 @@
         <v>1</v>
       </c>
       <c r="DW21" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX21" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:128" x14ac:dyDescent="0.25">
@@ -49963,10 +49971,10 @@
         <v>1</v>
       </c>
       <c r="DW22" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX22" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:128" x14ac:dyDescent="0.25">
@@ -50349,10 +50357,10 @@
         <v>1</v>
       </c>
       <c r="DW23" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX23" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:128" x14ac:dyDescent="0.25">
@@ -50735,10 +50743,10 @@
         <v>0</v>
       </c>
       <c r="DW24" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX24" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.25">
@@ -51121,10 +51129,10 @@
         <v>0</v>
       </c>
       <c r="DW25" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX25" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:128" x14ac:dyDescent="0.25">
@@ -51507,10 +51515,10 @@
         <v>0</v>
       </c>
       <c r="DW26" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX26" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.25">
@@ -51893,10 +51901,10 @@
         <v>0</v>
       </c>
       <c r="DW27" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX27" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:128" x14ac:dyDescent="0.25">
@@ -52279,10 +52287,10 @@
         <v>0</v>
       </c>
       <c r="DW28" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX28" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.25">
@@ -52665,10 +52673,10 @@
         <v>1</v>
       </c>
       <c r="DW29" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX29" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.25">
@@ -53051,10 +53059,10 @@
         <v>1</v>
       </c>
       <c r="DW30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX30" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.25">
@@ -53437,10 +53445,10 @@
         <v>0</v>
       </c>
       <c r="DW31" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX31" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:128" x14ac:dyDescent="0.25">
@@ -53823,10 +53831,10 @@
         <v>0</v>
       </c>
       <c r="DW32" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX32" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.25">
@@ -54209,10 +54217,10 @@
         <v>1</v>
       </c>
       <c r="DW33" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX33" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.25">
@@ -54595,10 +54603,10 @@
         <v>0</v>
       </c>
       <c r="DW34" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX34" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:128" x14ac:dyDescent="0.25">
@@ -54981,10 +54989,10 @@
         <v>0</v>
       </c>
       <c r="DW35" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX35" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:128" x14ac:dyDescent="0.25">
@@ -55367,10 +55375,10 @@
         <v>0</v>
       </c>
       <c r="DW36" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX36" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:128" x14ac:dyDescent="0.25">
@@ -55753,10 +55761,10 @@
         <v>1</v>
       </c>
       <c r="DW37" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX37" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:128" x14ac:dyDescent="0.25">
@@ -56139,10 +56147,10 @@
         <v>0</v>
       </c>
       <c r="DW38" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX38" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:128" x14ac:dyDescent="0.25">
@@ -56525,10 +56533,10 @@
         <v>1</v>
       </c>
       <c r="DW39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX39" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:128" x14ac:dyDescent="0.25">
@@ -56911,10 +56919,10 @@
         <v>1</v>
       </c>
       <c r="DW40" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX40" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:128" x14ac:dyDescent="0.25">
@@ -57297,10 +57305,10 @@
         <v>1</v>
       </c>
       <c r="DW41" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX41" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.25">
@@ -57683,10 +57691,10 @@
         <v>1</v>
       </c>
       <c r="DW42" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX42" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:128" x14ac:dyDescent="0.25">
@@ -58069,10 +58077,10 @@
         <v>0</v>
       </c>
       <c r="DW43" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX43" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:128" x14ac:dyDescent="0.25">
@@ -58455,10 +58463,10 @@
         <v>0</v>
       </c>
       <c r="DW44" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX44" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.25">
@@ -58841,10 +58849,10 @@
         <v>1</v>
       </c>
       <c r="DW45" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX45" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:128" x14ac:dyDescent="0.25">
@@ -59227,10 +59235,10 @@
         <v>0</v>
       </c>
       <c r="DW46" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX46" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:128" x14ac:dyDescent="0.25">
@@ -59613,10 +59621,10 @@
         <v>1</v>
       </c>
       <c r="DW47" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX47" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:128" x14ac:dyDescent="0.25">
@@ -59999,10 +60007,10 @@
         <v>1</v>
       </c>
       <c r="DW48" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX48" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:128" x14ac:dyDescent="0.25">
@@ -60385,10 +60393,10 @@
         <v>0</v>
       </c>
       <c r="DW49" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX49" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:128" x14ac:dyDescent="0.25">
@@ -60771,10 +60779,10 @@
         <v>1</v>
       </c>
       <c r="DW50" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX50" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:128" x14ac:dyDescent="0.25">
@@ -61157,10 +61165,10 @@
         <v>0</v>
       </c>
       <c r="DW51" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX51" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:128" x14ac:dyDescent="0.25">
@@ -61543,10 +61551,10 @@
         <v>0</v>
       </c>
       <c r="DW52" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX52" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:128" x14ac:dyDescent="0.25">
@@ -61929,10 +61937,10 @@
         <v>1</v>
       </c>
       <c r="DW53" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX53" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:128" x14ac:dyDescent="0.25">
@@ -62315,10 +62323,10 @@
         <v>0</v>
       </c>
       <c r="DW54" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX54" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:128" x14ac:dyDescent="0.25">
@@ -62701,10 +62709,10 @@
         <v>0</v>
       </c>
       <c r="DW55" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX55" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:128" x14ac:dyDescent="0.25">
@@ -63087,10 +63095,10 @@
         <v>0</v>
       </c>
       <c r="DW56" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX56" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:128" x14ac:dyDescent="0.25">
@@ -63473,10 +63481,10 @@
         <v>1</v>
       </c>
       <c r="DW57" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX57" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:128" x14ac:dyDescent="0.25">
@@ -63859,10 +63867,10 @@
         <v>0</v>
       </c>
       <c r="DW58" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX58" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:128" x14ac:dyDescent="0.25">
@@ -64245,10 +64253,10 @@
         <v>1</v>
       </c>
       <c r="DW59" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX59" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:128" x14ac:dyDescent="0.25">
@@ -64631,10 +64639,10 @@
         <v>0</v>
       </c>
       <c r="DW60" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX60" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:128" x14ac:dyDescent="0.25">
@@ -65017,10 +65025,10 @@
         <v>1</v>
       </c>
       <c r="DW61" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX61" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:128" x14ac:dyDescent="0.25">
@@ -65403,10 +65411,10 @@
         <v>0</v>
       </c>
       <c r="DW62" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX62" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:128" x14ac:dyDescent="0.25">
@@ -65789,10 +65797,10 @@
         <v>0</v>
       </c>
       <c r="DW63" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX63" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:128" x14ac:dyDescent="0.25">
@@ -66175,10 +66183,10 @@
         <v>1</v>
       </c>
       <c r="DW64" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX64" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="1:128" x14ac:dyDescent="0.25">
@@ -66561,10 +66569,10 @@
         <v>1</v>
       </c>
       <c r="DW65" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX65" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="1:128" x14ac:dyDescent="0.25">
@@ -66947,10 +66955,10 @@
         <v>0</v>
       </c>
       <c r="DW66" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX66" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:128" x14ac:dyDescent="0.25">
@@ -67333,10 +67341,10 @@
         <v>1</v>
       </c>
       <c r="DW67" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX67" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:128" x14ac:dyDescent="0.25">
@@ -67719,10 +67727,10 @@
         <v>0</v>
       </c>
       <c r="DW68" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX68" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:128" x14ac:dyDescent="0.25">
@@ -68105,10 +68113,10 @@
         <v>0</v>
       </c>
       <c r="DW69" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX69" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:128" x14ac:dyDescent="0.25">
@@ -68491,10 +68499,10 @@
         <v>1</v>
       </c>
       <c r="DW70" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX70" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:128" x14ac:dyDescent="0.25">
@@ -68877,10 +68885,10 @@
         <v>1</v>
       </c>
       <c r="DW71" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX71" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="72" spans="1:128" x14ac:dyDescent="0.25">
@@ -69263,10 +69271,10 @@
         <v>0</v>
       </c>
       <c r="DW72" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX72" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="73" spans="1:128" x14ac:dyDescent="0.25">
@@ -69649,10 +69657,10 @@
         <v>1</v>
       </c>
       <c r="DW73" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX73" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:128" x14ac:dyDescent="0.25">
@@ -70035,10 +70043,10 @@
         <v>0</v>
       </c>
       <c r="DW74" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX74" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:128" x14ac:dyDescent="0.25">
@@ -70421,10 +70429,10 @@
         <v>1</v>
       </c>
       <c r="DW75" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX75" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:128" x14ac:dyDescent="0.25">
@@ -70807,10 +70815,10 @@
         <v>1</v>
       </c>
       <c r="DW76" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX76" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:128" x14ac:dyDescent="0.25">
@@ -71193,10 +71201,10 @@
         <v>1</v>
       </c>
       <c r="DW77" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX77" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:128" x14ac:dyDescent="0.25">
@@ -71579,10 +71587,10 @@
         <v>0</v>
       </c>
       <c r="DW78" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX78" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:128" x14ac:dyDescent="0.25">
@@ -71965,10 +71973,10 @@
         <v>0</v>
       </c>
       <c r="DW79" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX79" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" spans="1:128" x14ac:dyDescent="0.25">
@@ -72351,10 +72359,10 @@
         <v>0</v>
       </c>
       <c r="DW80" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX80" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.25">
@@ -72737,10 +72745,10 @@
         <v>0</v>
       </c>
       <c r="DW81" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX81" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.25">
@@ -73123,10 +73131,10 @@
         <v>0</v>
       </c>
       <c r="DW82" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX82" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:128" x14ac:dyDescent="0.25">
@@ -73509,10 +73517,10 @@
         <v>0</v>
       </c>
       <c r="DW83" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX83" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="1:128" x14ac:dyDescent="0.25">
@@ -73895,10 +73903,10 @@
         <v>0</v>
       </c>
       <c r="DW84" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX84" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="85" spans="1:128" x14ac:dyDescent="0.25">
@@ -74281,10 +74289,10 @@
         <v>1</v>
       </c>
       <c r="DW85" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX85" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:128" x14ac:dyDescent="0.25">
@@ -74667,10 +74675,10 @@
         <v>0</v>
       </c>
       <c r="DW86" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX86" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="87" spans="1:128" x14ac:dyDescent="0.25">
@@ -75053,10 +75061,10 @@
         <v>0</v>
       </c>
       <c r="DW87" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX87" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:128" x14ac:dyDescent="0.25">
@@ -75439,10 +75447,10 @@
         <v>0</v>
       </c>
       <c r="DW88" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX88" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:128" x14ac:dyDescent="0.25">
@@ -75825,10 +75833,10 @@
         <v>0</v>
       </c>
       <c r="DW89" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX89" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.25">
@@ -76211,10 +76219,10 @@
         <v>0</v>
       </c>
       <c r="DW90" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX90" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91" spans="1:128" x14ac:dyDescent="0.25">
@@ -76597,10 +76605,10 @@
         <v>0</v>
       </c>
       <c r="DW91" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX91" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="92" spans="1:128" x14ac:dyDescent="0.25">
@@ -76983,10 +76991,10 @@
         <v>1</v>
       </c>
       <c r="DW92" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX92" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.25">
@@ -77369,10 +77377,10 @@
         <v>0</v>
       </c>
       <c r="DW93" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX93" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="94" spans="1:128" x14ac:dyDescent="0.25">
@@ -77755,10 +77763,10 @@
         <v>1</v>
       </c>
       <c r="DW94" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX94" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" spans="1:128" x14ac:dyDescent="0.25">
@@ -78141,10 +78149,10 @@
         <v>0</v>
       </c>
       <c r="DW95" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX95" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:128" x14ac:dyDescent="0.25">
@@ -78527,10 +78535,10 @@
         <v>0</v>
       </c>
       <c r="DW96" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX96" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97" spans="1:128" x14ac:dyDescent="0.25">
@@ -78913,10 +78921,10 @@
         <v>1</v>
       </c>
       <c r="DW97" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX97" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.25">
@@ -79299,10 +79307,10 @@
         <v>0</v>
       </c>
       <c r="DW98" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX98" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="99" spans="1:128" x14ac:dyDescent="0.25">
@@ -79685,10 +79693,10 @@
         <v>0</v>
       </c>
       <c r="DW99" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX99" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.25">
@@ -80071,10 +80079,10 @@
         <v>1</v>
       </c>
       <c r="DW100" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="DX100" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.25">
@@ -80457,10 +80465,10 @@
         <v>0</v>
       </c>
       <c r="DW101" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DX101" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/tests/input/dummy_data_with_legend_and_multiple_tabs.xlsx
+++ b/tests/input/dummy_data_with_legend_and_multiple_tabs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\stage\CRISP\tests\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF859934-423C-4CFC-B645-1F1ACF9C567E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EC22B1-37CB-41D4-849A-D3380C4E8DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7A9A6D38-CBB6-43D5-AC81-B65459199336}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7A9A6D38-CBB6-43D5-AC81-B65459199336}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="3" r:id="rId1"/>
@@ -44,360 +44,6 @@
   </si>
   <si>
     <t>Age</t>
-  </si>
-  <si>
-    <t>Zwelling_Elleboog L</t>
-  </si>
-  <si>
-    <t>Zwelling_IP links</t>
-  </si>
-  <si>
-    <t>Zwelling_IP rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_acromioclaviaculair L</t>
-  </si>
-  <si>
-    <t>Zwelling_acromioclaviaculair R</t>
-  </si>
-  <si>
-    <t>Zwelling_bovenste spronggewicht links</t>
-  </si>
-  <si>
-    <t>Zwelling_bovenste spronggewricht rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 2 links</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 2 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 3 links</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 3 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 4 links</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 4 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 5 links</t>
-  </si>
-  <si>
-    <t>Zwelling_dip 5 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_elleboog R</t>
-  </si>
-  <si>
-    <t>Zwelling_knie links</t>
-  </si>
-  <si>
-    <t>Zwelling_knie rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 1 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 1 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 2 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 2 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 3 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 3 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 4 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 4 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 5 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mcp 5 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 1 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 1 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 2 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 2 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 3 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 3 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 4 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 4 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 5 links</t>
-  </si>
-  <si>
-    <t>Zwelling_mtp 5 rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_onderste spronggewricht links</t>
-  </si>
-  <si>
-    <t>Zwelling_onderste spronggewricht rechts</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 2 links hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 2 rechts hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 3 links hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 3 rechts hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 4 links hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 4 rechts hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 5 links hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pip 5 rechts hand</t>
-  </si>
-  <si>
-    <t>Zwelling_pols L</t>
-  </si>
-  <si>
-    <t>Zwelling_pols R</t>
-  </si>
-  <si>
-    <t>Zwelling_schouder L</t>
-  </si>
-  <si>
-    <t>Zwelling_schouder R</t>
-  </si>
-  <si>
-    <t>Zwelling_sternoclaviculair L</t>
-  </si>
-  <si>
-    <t>Zwelling_sternoclaviculair R</t>
-  </si>
-  <si>
-    <t>Zwelling_tarsometatarsaal L</t>
-  </si>
-  <si>
-    <t>Zwelling_tarsometatarsaal R</t>
-  </si>
-  <si>
-    <t>Zwelling_temporomandibulair L</t>
-  </si>
-  <si>
-    <t>Zwelling_temporomandibulair R</t>
-  </si>
-  <si>
-    <t>Pijn_Elleboog L</t>
-  </si>
-  <si>
-    <t>Pijn_IP links</t>
-  </si>
-  <si>
-    <t>Pijn_IP rechts</t>
-  </si>
-  <si>
-    <t>Pijn_acromioclaviaculair L</t>
-  </si>
-  <si>
-    <t>Pijn_acromioclaviaculair R</t>
-  </si>
-  <si>
-    <t>Pijn_bovenste spronggewicht links</t>
-  </si>
-  <si>
-    <t>Pijn_bovenste spronggewricht rechts</t>
-  </si>
-  <si>
-    <t>Pijn_dip 2 links</t>
-  </si>
-  <si>
-    <t>Pijn_dip 2 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_dip 3 links</t>
-  </si>
-  <si>
-    <t>Pijn_dip 3 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_dip 4 links</t>
-  </si>
-  <si>
-    <t>Pijn_dip 4 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_dip 5 links</t>
-  </si>
-  <si>
-    <t>Pijn_dip 5 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_elleboog R</t>
-  </si>
-  <si>
-    <t>Pijn_heup links</t>
-  </si>
-  <si>
-    <t>Pijn_heup rechts</t>
-  </si>
-  <si>
-    <t>Pijn_knie links</t>
-  </si>
-  <si>
-    <t>Pijn_knie rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 1 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 1 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 2 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 2 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 3 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 3 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 4 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 4 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 5 links</t>
-  </si>
-  <si>
-    <t>Pijn_mcp 5 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 1 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 1 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 2 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 2 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 3 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 3 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 4 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 4 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 5 links</t>
-  </si>
-  <si>
-    <t>Pijn_mtp 5 rechts</t>
-  </si>
-  <si>
-    <t>Pijn_onderste spronggewricht links</t>
-  </si>
-  <si>
-    <t>Pijn_onderste spronggewricht rechts</t>
-  </si>
-  <si>
-    <t>Pijn_pip 2 links hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 2 rechts hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 3 links hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 3 rechts hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 4 links hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 4 rechts hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 5 links hand</t>
-  </si>
-  <si>
-    <t>Pijn_pip 5 rechts hand</t>
-  </si>
-  <si>
-    <t>Pijn_pols L</t>
-  </si>
-  <si>
-    <t>Pijn_pols R</t>
-  </si>
-  <si>
-    <t>Pijn_schouder L</t>
-  </si>
-  <si>
-    <t>Pijn_schouder R</t>
-  </si>
-  <si>
-    <t>Pijn_sternoclaviculair L</t>
-  </si>
-  <si>
-    <t>Pijn_sternoclaviculair R</t>
-  </si>
-  <si>
-    <t>Pijn_tarsometatarsaal L</t>
-  </si>
-  <si>
-    <t>Pijn_tarsometatarsaal R</t>
-  </si>
-  <si>
-    <t>Pijn_temporomandibulair L</t>
-  </si>
-  <si>
-    <t>Pijn_temporomandibulair R</t>
   </si>
   <si>
     <t>RF</t>
@@ -1029,6 +675,360 @@
   <si>
     <t>Patient number</t>
   </si>
+  <si>
+    <t>s_el_left</t>
+  </si>
+  <si>
+    <t>s_pip1_left</t>
+  </si>
+  <si>
+    <t>s_pip1_right</t>
+  </si>
+  <si>
+    <t>s_ac_left</t>
+  </si>
+  <si>
+    <t>s_ac_right</t>
+  </si>
+  <si>
+    <t>s_ank_left</t>
+  </si>
+  <si>
+    <t>s_ank_right</t>
+  </si>
+  <si>
+    <t>s_dip2_left</t>
+  </si>
+  <si>
+    <t>s_dip2_right</t>
+  </si>
+  <si>
+    <t>s_dip3_left</t>
+  </si>
+  <si>
+    <t>s_dip3_right</t>
+  </si>
+  <si>
+    <t>s_dip4_left</t>
+  </si>
+  <si>
+    <t>s_dip4_right</t>
+  </si>
+  <si>
+    <t>s_dip5_left</t>
+  </si>
+  <si>
+    <t>s_dip5_right</t>
+  </si>
+  <si>
+    <t>s_el_right</t>
+  </si>
+  <si>
+    <t>s_kn_left</t>
+  </si>
+  <si>
+    <t>s_kn_right</t>
+  </si>
+  <si>
+    <t>s_mcp1_left</t>
+  </si>
+  <si>
+    <t>s_mcp1_right</t>
+  </si>
+  <si>
+    <t>s_mcp2_left</t>
+  </si>
+  <si>
+    <t>s_mcp2_right</t>
+  </si>
+  <si>
+    <t>s_mcp3_left</t>
+  </si>
+  <si>
+    <t>s_mcp3_right</t>
+  </si>
+  <si>
+    <t>s_mcp4_left</t>
+  </si>
+  <si>
+    <t>s_mcp4_right</t>
+  </si>
+  <si>
+    <t>s_mcp5_left</t>
+  </si>
+  <si>
+    <t>s_mcp5_right</t>
+  </si>
+  <si>
+    <t>s_mtp1_left</t>
+  </si>
+  <si>
+    <t>s_mtp1_right</t>
+  </si>
+  <si>
+    <t>s_mtp2_left</t>
+  </si>
+  <si>
+    <t>s_mtp2_right</t>
+  </si>
+  <si>
+    <t>s_mtp3_left</t>
+  </si>
+  <si>
+    <t>s_mtp3_right</t>
+  </si>
+  <si>
+    <t>s_mtp4_left</t>
+  </si>
+  <si>
+    <t>s_mtp4_right</t>
+  </si>
+  <si>
+    <t>s_mtp5_left</t>
+  </si>
+  <si>
+    <t>s_mtp5_right</t>
+  </si>
+  <si>
+    <t>s_onderste_spronggewricht_left</t>
+  </si>
+  <si>
+    <t>s_onderste_spronggewricht_right</t>
+  </si>
+  <si>
+    <t>s_pip2_left</t>
+  </si>
+  <si>
+    <t>s_pip2_right</t>
+  </si>
+  <si>
+    <t>s_pip3_left</t>
+  </si>
+  <si>
+    <t>s_pip3_right</t>
+  </si>
+  <si>
+    <t>s_pip4_left</t>
+  </si>
+  <si>
+    <t>s_pip4_right</t>
+  </si>
+  <si>
+    <t>s_pip5_left</t>
+  </si>
+  <si>
+    <t>s_pip5_right</t>
+  </si>
+  <si>
+    <t>s_wr_left</t>
+  </si>
+  <si>
+    <t>s_wr_right</t>
+  </si>
+  <si>
+    <t>s_sh_left</t>
+  </si>
+  <si>
+    <t>s_sh_right</t>
+  </si>
+  <si>
+    <t>s_sc_left</t>
+  </si>
+  <si>
+    <t>s_sc_right</t>
+  </si>
+  <si>
+    <t>s_tar_left</t>
+  </si>
+  <si>
+    <t>s_tar_right</t>
+  </si>
+  <si>
+    <t>s_tm_left</t>
+  </si>
+  <si>
+    <t>s_tm_right</t>
+  </si>
+  <si>
+    <t>t_el_left</t>
+  </si>
+  <si>
+    <t>t_pip1_left</t>
+  </si>
+  <si>
+    <t>t_pip1_right</t>
+  </si>
+  <si>
+    <t>t_ac_left</t>
+  </si>
+  <si>
+    <t>t_ac_right</t>
+  </si>
+  <si>
+    <t>t_ank_left</t>
+  </si>
+  <si>
+    <t>t_ank_right</t>
+  </si>
+  <si>
+    <t>t_dip2_left</t>
+  </si>
+  <si>
+    <t>t_dip2_right</t>
+  </si>
+  <si>
+    <t>t_dip3_left</t>
+  </si>
+  <si>
+    <t>t_dip3_right</t>
+  </si>
+  <si>
+    <t>t_dip4_left</t>
+  </si>
+  <si>
+    <t>t_dip4_right</t>
+  </si>
+  <si>
+    <t>t_dip5_left</t>
+  </si>
+  <si>
+    <t>t_dip5_right</t>
+  </si>
+  <si>
+    <t>t_el_right</t>
+  </si>
+  <si>
+    <t>t_hip_left</t>
+  </si>
+  <si>
+    <t>t_hip_right</t>
+  </si>
+  <si>
+    <t>t_kn_left</t>
+  </si>
+  <si>
+    <t>t_kn_right</t>
+  </si>
+  <si>
+    <t>t_mcp1_left</t>
+  </si>
+  <si>
+    <t>t_mcp1_right</t>
+  </si>
+  <si>
+    <t>t_mcp2_left</t>
+  </si>
+  <si>
+    <t>t_mcp2_right</t>
+  </si>
+  <si>
+    <t>t_mcp3_left</t>
+  </si>
+  <si>
+    <t>t_mcp3_right</t>
+  </si>
+  <si>
+    <t>t_mcp4_left</t>
+  </si>
+  <si>
+    <t>t_mcp4_right</t>
+  </si>
+  <si>
+    <t>t_mcp5_left</t>
+  </si>
+  <si>
+    <t>t_mcp5_right</t>
+  </si>
+  <si>
+    <t>t_mtp1_left</t>
+  </si>
+  <si>
+    <t>t_mtp1_right</t>
+  </si>
+  <si>
+    <t>t_mtp2_left</t>
+  </si>
+  <si>
+    <t>t_mtp2_right</t>
+  </si>
+  <si>
+    <t>t_mtp3_left</t>
+  </si>
+  <si>
+    <t>t_mtp3_right</t>
+  </si>
+  <si>
+    <t>t_mtp4_left</t>
+  </si>
+  <si>
+    <t>t_mtp4_right</t>
+  </si>
+  <si>
+    <t>t_mtp5_left</t>
+  </si>
+  <si>
+    <t>t_mtp5_right</t>
+  </si>
+  <si>
+    <t>t_onderste_spronggewricht_left</t>
+  </si>
+  <si>
+    <t>t_onderste_spronggewricht_right</t>
+  </si>
+  <si>
+    <t>t_pip2_left</t>
+  </si>
+  <si>
+    <t>t_pip2_right</t>
+  </si>
+  <si>
+    <t>t_pip3_left</t>
+  </si>
+  <si>
+    <t>t_pip3_right</t>
+  </si>
+  <si>
+    <t>t_pip4_left</t>
+  </si>
+  <si>
+    <t>t_pip4_right</t>
+  </si>
+  <si>
+    <t>t_pip5_left</t>
+  </si>
+  <si>
+    <t>t_pip5_right</t>
+  </si>
+  <si>
+    <t>t_wr_left</t>
+  </si>
+  <si>
+    <t>t_wr_right</t>
+  </si>
+  <si>
+    <t>t_sh_left</t>
+  </si>
+  <si>
+    <t>t_sh_right</t>
+  </si>
+  <si>
+    <t>t_sc_left</t>
+  </si>
+  <si>
+    <t>t_sc_right</t>
+  </si>
+  <si>
+    <t>t_tar_left</t>
+  </si>
+  <si>
+    <t>t_tar_right</t>
+  </si>
+  <si>
+    <t>t_tm_left</t>
+  </si>
+  <si>
+    <t>t_tm_right</t>
+  </si>
 </sst>
 </file>
 
@@ -1418,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2548E32-2DBD-444F-8792-2C447E9F6545}">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,43 +1430,43 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>227</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>211</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>229</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>325</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1474,23 +1474,23 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>326</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>327</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1498,975 +1498,975 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
       <c r="C18" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>222</v>
       </c>
       <c r="C22" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="C26" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="C28" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>229</v>
       </c>
       <c r="C29" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>230</v>
       </c>
       <c r="C30" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="C32" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="C33" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="C34" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="C35" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>236</v>
       </c>
       <c r="C36" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="C37" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="C38" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="C39" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="C40" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>241</v>
       </c>
       <c r="C41" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>242</v>
       </c>
       <c r="C42" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="C43" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="C44" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
       <c r="C45" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="C46" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>247</v>
       </c>
       <c r="C47" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="C48" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="C49" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="C50" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="C51" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>252</v>
       </c>
       <c r="C52" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="C53" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>254</v>
       </c>
       <c r="C54" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="C55" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="C56" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>257</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="C58" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>259</v>
       </c>
       <c r="C59" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="C60" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>261</v>
       </c>
       <c r="C61" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>262</v>
       </c>
       <c r="C62" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>263</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="C64" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="C65" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="C66" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>267</v>
       </c>
       <c r="C67" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="C68" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="C69" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>270</v>
       </c>
       <c r="C70" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>272</v>
       </c>
       <c r="C72" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>273</v>
       </c>
       <c r="C73" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>274</v>
       </c>
       <c r="C74" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>276</v>
       </c>
       <c r="C76" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="C77" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>278</v>
       </c>
       <c r="C78" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="C79" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>280</v>
       </c>
       <c r="C80" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="C81" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>282</v>
       </c>
       <c r="C82" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>283</v>
       </c>
       <c r="C83" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>284</v>
       </c>
       <c r="C84" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>26</v>
+        <v>285</v>
       </c>
       <c r="C85" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="C86" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>28</v>
+        <v>287</v>
       </c>
       <c r="C87" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>288</v>
       </c>
       <c r="C88" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>116</v>
+        <v>289</v>
       </c>
       <c r="C89" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>290</v>
       </c>
       <c r="C90" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>56</v>
+        <v>291</v>
       </c>
       <c r="C91" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>292</v>
       </c>
       <c r="C92" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>293</v>
       </c>
       <c r="C93" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>294</v>
       </c>
       <c r="C94" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>295</v>
       </c>
       <c r="C95" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>296</v>
       </c>
       <c r="C96" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>297</v>
       </c>
       <c r="C97" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>298</v>
       </c>
       <c r="C98" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>299</v>
       </c>
       <c r="C99" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>300</v>
       </c>
       <c r="C100" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>301</v>
       </c>
       <c r="C101" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>31</v>
+        <v>302</v>
       </c>
       <c r="C102" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="C103" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>33</v>
+        <v>304</v>
       </c>
       <c r="C104" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>32</v>
+        <v>305</v>
       </c>
       <c r="C105" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>35</v>
+        <v>306</v>
       </c>
       <c r="C106" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>34</v>
+        <v>307</v>
       </c>
       <c r="C107" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="C108" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="C109" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>39</v>
+        <v>310</v>
       </c>
       <c r="C110" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>38</v>
+        <v>311</v>
       </c>
       <c r="C111" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>312</v>
       </c>
       <c r="C112" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>313</v>
       </c>
       <c r="C113" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>55</v>
+        <v>314</v>
       </c>
       <c r="C114" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>54</v>
+        <v>315</v>
       </c>
       <c r="C115" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>316</v>
+      </c>
+      <c r="C116" t="s">
         <v>113</v>
-      </c>
-      <c r="C116" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>112</v>
+        <v>317</v>
       </c>
       <c r="C117" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>53</v>
+        <v>318</v>
       </c>
       <c r="C118" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>52</v>
+        <v>319</v>
       </c>
       <c r="C119" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>320</v>
       </c>
       <c r="C120" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>321</v>
       </c>
       <c r="C121" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>59</v>
+        <v>322</v>
       </c>
       <c r="C122" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>58</v>
+        <v>323</v>
       </c>
       <c r="C123" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>111</v>
+        <v>324</v>
       </c>
       <c r="C124" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>110</v>
+        <v>325</v>
       </c>
       <c r="C125" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>51</v>
+        <v>326</v>
       </c>
       <c r="C126" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>50</v>
+        <v>327</v>
       </c>
       <c r="C127" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="C128" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="C129" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2478,396 +2478,396 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E13960B-BF75-4ED5-803A-A3E33BBC17FF}">
   <dimension ref="A1:DX101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:DX1"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>222</v>
+      </c>
+      <c r="R1" t="s">
+        <v>223</v>
+      </c>
+      <c r="S1" t="s">
+        <v>224</v>
+      </c>
+      <c r="T1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U1" t="s">
+        <v>226</v>
+      </c>
+      <c r="V1" t="s">
+        <v>227</v>
+      </c>
+      <c r="W1" t="s">
+        <v>228</v>
+      </c>
+      <c r="X1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>258</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>271</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>284</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>285</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>286</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>287</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>288</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>289</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>290</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>291</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>292</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>293</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>294</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>295</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>296</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>297</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>298</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>299</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>301</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>302</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>303</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>304</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>305</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>306</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>307</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>308</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>309</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>310</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>311</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>312</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>313</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>314</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>315</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>316</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>317</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>318</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>319</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>320</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>321</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>322</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>323</v>
+      </c>
+      <c r="DO1" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="DP1" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="DQ1" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="DR1" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="DS1" t="s">
+        <v>328</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>329</v>
+      </c>
+      <c r="DU1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="DV1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DW1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="CG1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="CL1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="CM1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CO1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CP1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="CQ1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="CR1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CT1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CU1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="CV1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="CW1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CX1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CY1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CZ1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="DA1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="DB1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="DC1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="DD1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="DE1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="DF1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="DG1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="DH1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="DI1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="DK1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="DL1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="DM1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DN1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="DO1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="DP1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="DQ1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="DR1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="DS1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="DT1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="DU1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="DV1" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="DW1" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="DX1" s="2" t="s">
-        <v>329</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:128" x14ac:dyDescent="0.25">
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="DW2" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX2" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.25">
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX3" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:128" x14ac:dyDescent="0.25">
@@ -4022,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="DW4" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX4" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.25">
@@ -4408,10 +4408,10 @@
         <v>0</v>
       </c>
       <c r="DW5" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX5" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.25">
@@ -4794,10 +4794,10 @@
         <v>0</v>
       </c>
       <c r="DW6" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX6" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.25">
@@ -5180,10 +5180,10 @@
         <v>1</v>
       </c>
       <c r="DW7" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:128" x14ac:dyDescent="0.25">
@@ -5566,10 +5566,10 @@
         <v>1</v>
       </c>
       <c r="DW8" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX8" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.25">
@@ -5952,10 +5952,10 @@
         <v>0</v>
       </c>
       <c r="DW9" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX9" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.25">
@@ -6338,10 +6338,10 @@
         <v>1</v>
       </c>
       <c r="DW10" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX10" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:128" x14ac:dyDescent="0.25">
@@ -6724,10 +6724,10 @@
         <v>0</v>
       </c>
       <c r="DW11" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX11" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:128" x14ac:dyDescent="0.25">
@@ -7110,10 +7110,10 @@
         <v>1</v>
       </c>
       <c r="DW12" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX12" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:128" x14ac:dyDescent="0.25">
@@ -7496,10 +7496,10 @@
         <v>0</v>
       </c>
       <c r="DW13" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX13" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:128" x14ac:dyDescent="0.25">
@@ -7882,10 +7882,10 @@
         <v>0</v>
       </c>
       <c r="DW14" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX14" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:128" x14ac:dyDescent="0.25">
@@ -8268,10 +8268,10 @@
         <v>1</v>
       </c>
       <c r="DW15" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX15" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:128" x14ac:dyDescent="0.25">
@@ -8654,10 +8654,10 @@
         <v>1</v>
       </c>
       <c r="DW16" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX16" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:128" x14ac:dyDescent="0.25">
@@ -9040,10 +9040,10 @@
         <v>1</v>
       </c>
       <c r="DW17" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX17" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.25">
@@ -9426,10 +9426,10 @@
         <v>1</v>
       </c>
       <c r="DW18" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX18" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:128" x14ac:dyDescent="0.25">
@@ -9812,10 +9812,10 @@
         <v>1</v>
       </c>
       <c r="DW19" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX19" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:128" x14ac:dyDescent="0.25">
@@ -10198,10 +10198,10 @@
         <v>1</v>
       </c>
       <c r="DW20" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX20" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.25">
@@ -10584,10 +10584,10 @@
         <v>0</v>
       </c>
       <c r="DW21" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX21" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:128" x14ac:dyDescent="0.25">
@@ -10970,10 +10970,10 @@
         <v>0</v>
       </c>
       <c r="DW22" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX22" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:128" x14ac:dyDescent="0.25">
@@ -11356,10 +11356,10 @@
         <v>1</v>
       </c>
       <c r="DW23" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX23" t="s">
-        <v>145</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:128" x14ac:dyDescent="0.25">
@@ -11742,10 +11742,10 @@
         <v>0</v>
       </c>
       <c r="DW24" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX24" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.25">
@@ -12128,10 +12128,10 @@
         <v>0</v>
       </c>
       <c r="DW25" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX25" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:128" x14ac:dyDescent="0.25">
@@ -12514,10 +12514,10 @@
         <v>0</v>
       </c>
       <c r="DW26" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX26" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.25">
@@ -12900,10 +12900,10 @@
         <v>0</v>
       </c>
       <c r="DW27" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX27" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:128" x14ac:dyDescent="0.25">
@@ -13286,10 +13286,10 @@
         <v>0</v>
       </c>
       <c r="DW28" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX28" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.25">
@@ -13672,10 +13672,10 @@
         <v>1</v>
       </c>
       <c r="DW29" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX29" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.25">
@@ -14058,10 +14058,10 @@
         <v>0</v>
       </c>
       <c r="DW30" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX30" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.25">
@@ -14444,10 +14444,10 @@
         <v>0</v>
       </c>
       <c r="DW31" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX31" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:128" x14ac:dyDescent="0.25">
@@ -14830,10 +14830,10 @@
         <v>1</v>
       </c>
       <c r="DW32" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX32" t="s">
-        <v>154</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.25">
@@ -15216,10 +15216,10 @@
         <v>0</v>
       </c>
       <c r="DW33" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX33" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.25">
@@ -15602,10 +15602,10 @@
         <v>1</v>
       </c>
       <c r="DW34" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX34" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:128" x14ac:dyDescent="0.25">
@@ -15988,10 +15988,10 @@
         <v>1</v>
       </c>
       <c r="DW35" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX35" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:128" x14ac:dyDescent="0.25">
@@ -16374,10 +16374,10 @@
         <v>0</v>
       </c>
       <c r="DW36" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX36" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:128" x14ac:dyDescent="0.25">
@@ -16760,10 +16760,10 @@
         <v>0</v>
       </c>
       <c r="DW37" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX37" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:128" x14ac:dyDescent="0.25">
@@ -17146,10 +17146,10 @@
         <v>0</v>
       </c>
       <c r="DW38" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX38" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:128" x14ac:dyDescent="0.25">
@@ -17532,10 +17532,10 @@
         <v>0</v>
       </c>
       <c r="DW39" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX39" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:128" x14ac:dyDescent="0.25">
@@ -17918,10 +17918,10 @@
         <v>0</v>
       </c>
       <c r="DW40" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX40" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:128" x14ac:dyDescent="0.25">
@@ -18304,10 +18304,10 @@
         <v>1</v>
       </c>
       <c r="DW41" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX41" t="s">
-        <v>163</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.25">
@@ -18690,10 +18690,10 @@
         <v>0</v>
       </c>
       <c r="DW42" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX42" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:128" x14ac:dyDescent="0.25">
@@ -19076,10 +19076,10 @@
         <v>1</v>
       </c>
       <c r="DW43" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX43" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:128" x14ac:dyDescent="0.25">
@@ -19462,10 +19462,10 @@
         <v>0</v>
       </c>
       <c r="DW44" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX44" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.25">
@@ -19848,10 +19848,10 @@
         <v>0</v>
       </c>
       <c r="DW45" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX45" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:128" x14ac:dyDescent="0.25">
@@ -20234,10 +20234,10 @@
         <v>0</v>
       </c>
       <c r="DW46" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX46" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:128" x14ac:dyDescent="0.25">
@@ -20620,10 +20620,10 @@
         <v>0</v>
       </c>
       <c r="DW47" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX47" t="s">
-        <v>169</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:128" x14ac:dyDescent="0.25">
@@ -21006,10 +21006,10 @@
         <v>0</v>
       </c>
       <c r="DW48" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX48" t="s">
-        <v>170</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:128" x14ac:dyDescent="0.25">
@@ -21392,10 +21392,10 @@
         <v>0</v>
       </c>
       <c r="DW49" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX49" t="s">
-        <v>171</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:128" x14ac:dyDescent="0.25">
@@ -21778,10 +21778,10 @@
         <v>0</v>
       </c>
       <c r="DW50" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX50" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:128" x14ac:dyDescent="0.25">
@@ -22164,10 +22164,10 @@
         <v>1</v>
       </c>
       <c r="DW51" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX51" t="s">
-        <v>173</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:128" x14ac:dyDescent="0.25">
@@ -22550,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="DW52" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX52" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:128" x14ac:dyDescent="0.25">
@@ -22936,10 +22936,10 @@
         <v>0</v>
       </c>
       <c r="DW53" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX53" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:128" x14ac:dyDescent="0.25">
@@ -23322,10 +23322,10 @@
         <v>1</v>
       </c>
       <c r="DW54" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX54" t="s">
-        <v>176</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:128" x14ac:dyDescent="0.25">
@@ -23708,10 +23708,10 @@
         <v>1</v>
       </c>
       <c r="DW55" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX55" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:128" x14ac:dyDescent="0.25">
@@ -24094,10 +24094,10 @@
         <v>1</v>
       </c>
       <c r="DW56" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX56" t="s">
-        <v>178</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:128" x14ac:dyDescent="0.25">
@@ -24480,10 +24480,10 @@
         <v>0</v>
       </c>
       <c r="DW57" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX57" t="s">
-        <v>179</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:128" x14ac:dyDescent="0.25">
@@ -24866,10 +24866,10 @@
         <v>0</v>
       </c>
       <c r="DW58" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX58" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:128" x14ac:dyDescent="0.25">
@@ -25252,10 +25252,10 @@
         <v>0</v>
       </c>
       <c r="DW59" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX59" t="s">
-        <v>181</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:128" x14ac:dyDescent="0.25">
@@ -25638,10 +25638,10 @@
         <v>0</v>
       </c>
       <c r="DW60" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX60" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:128" x14ac:dyDescent="0.25">
@@ -26024,10 +26024,10 @@
         <v>1</v>
       </c>
       <c r="DW61" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX61" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:128" x14ac:dyDescent="0.25">
@@ -26410,10 +26410,10 @@
         <v>0</v>
       </c>
       <c r="DW62" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX62" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:128" x14ac:dyDescent="0.25">
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="DW63" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX63" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:128" x14ac:dyDescent="0.25">
@@ -27182,10 +27182,10 @@
         <v>1</v>
       </c>
       <c r="DW64" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX64" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:128" x14ac:dyDescent="0.25">
@@ -27568,10 +27568,10 @@
         <v>1</v>
       </c>
       <c r="DW65" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX65" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:128" x14ac:dyDescent="0.25">
@@ -27954,10 +27954,10 @@
         <v>0</v>
       </c>
       <c r="DW66" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX66" t="s">
-        <v>188</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:128" x14ac:dyDescent="0.25">
@@ -28340,10 +28340,10 @@
         <v>0</v>
       </c>
       <c r="DW67" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX67" t="s">
-        <v>189</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:128" x14ac:dyDescent="0.25">
@@ -28726,10 +28726,10 @@
         <v>0</v>
       </c>
       <c r="DW68" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX68" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:128" x14ac:dyDescent="0.25">
@@ -29112,10 +29112,10 @@
         <v>0</v>
       </c>
       <c r="DW69" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX69" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:128" x14ac:dyDescent="0.25">
@@ -29498,10 +29498,10 @@
         <v>0</v>
       </c>
       <c r="DW70" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX70" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:128" x14ac:dyDescent="0.25">
@@ -29884,10 +29884,10 @@
         <v>0</v>
       </c>
       <c r="DW71" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX71" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:128" x14ac:dyDescent="0.25">
@@ -30270,10 +30270,10 @@
         <v>1</v>
       </c>
       <c r="DW72" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX72" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:128" x14ac:dyDescent="0.25">
@@ -30656,10 +30656,10 @@
         <v>1</v>
       </c>
       <c r="DW73" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX73" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:128" x14ac:dyDescent="0.25">
@@ -31042,10 +31042,10 @@
         <v>1</v>
       </c>
       <c r="DW74" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX74" t="s">
-        <v>196</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:128" x14ac:dyDescent="0.25">
@@ -31428,10 +31428,10 @@
         <v>0</v>
       </c>
       <c r="DW75" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX75" t="s">
-        <v>197</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:128" x14ac:dyDescent="0.25">
@@ -31814,10 +31814,10 @@
         <v>0</v>
       </c>
       <c r="DW76" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX76" t="s">
-        <v>198</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:128" x14ac:dyDescent="0.25">
@@ -32200,10 +32200,10 @@
         <v>1</v>
       </c>
       <c r="DW77" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX77" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:128" x14ac:dyDescent="0.25">
@@ -32586,10 +32586,10 @@
         <v>0</v>
       </c>
       <c r="DW78" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX78" t="s">
-        <v>200</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:128" x14ac:dyDescent="0.25">
@@ -32972,10 +32972,10 @@
         <v>1</v>
       </c>
       <c r="DW79" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX79" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:128" x14ac:dyDescent="0.25">
@@ -33358,10 +33358,10 @@
         <v>0</v>
       </c>
       <c r="DW80" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX80" t="s">
-        <v>202</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.25">
@@ -33744,10 +33744,10 @@
         <v>0</v>
       </c>
       <c r="DW81" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX81" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.25">
@@ -34130,10 +34130,10 @@
         <v>1</v>
       </c>
       <c r="DW82" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX82" t="s">
-        <v>204</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:128" x14ac:dyDescent="0.25">
@@ -34516,10 +34516,10 @@
         <v>1</v>
       </c>
       <c r="DW83" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX83" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:128" x14ac:dyDescent="0.25">
@@ -34902,10 +34902,10 @@
         <v>1</v>
       </c>
       <c r="DW84" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX84" t="s">
-        <v>206</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:128" x14ac:dyDescent="0.25">
@@ -35288,10 +35288,10 @@
         <v>0</v>
       </c>
       <c r="DW85" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX85" t="s">
-        <v>207</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:128" x14ac:dyDescent="0.25">
@@ -35674,10 +35674,10 @@
         <v>1</v>
       </c>
       <c r="DW86" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX86" t="s">
-        <v>208</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:128" x14ac:dyDescent="0.25">
@@ -36060,10 +36060,10 @@
         <v>1</v>
       </c>
       <c r="DW87" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX87" t="s">
-        <v>209</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:128" x14ac:dyDescent="0.25">
@@ -36446,10 +36446,10 @@
         <v>0</v>
       </c>
       <c r="DW88" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX88" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:128" x14ac:dyDescent="0.25">
@@ -36832,10 +36832,10 @@
         <v>1</v>
       </c>
       <c r="DW89" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX89" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.25">
@@ -37218,10 +37218,10 @@
         <v>0</v>
       </c>
       <c r="DW90" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX90" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91" spans="1:128" x14ac:dyDescent="0.25">
@@ -37604,10 +37604,10 @@
         <v>0</v>
       </c>
       <c r="DW91" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX91" t="s">
-        <v>213</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="1:128" x14ac:dyDescent="0.25">
@@ -37990,10 +37990,10 @@
         <v>1</v>
       </c>
       <c r="DW92" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX92" t="s">
-        <v>214</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.25">
@@ -38376,10 +38376,10 @@
         <v>1</v>
       </c>
       <c r="DW93" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX93" t="s">
-        <v>215</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:128" x14ac:dyDescent="0.25">
@@ -38762,10 +38762,10 @@
         <v>0</v>
       </c>
       <c r="DW94" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX94" t="s">
-        <v>216</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:128" x14ac:dyDescent="0.25">
@@ -39148,10 +39148,10 @@
         <v>1</v>
       </c>
       <c r="DW95" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX95" t="s">
-        <v>217</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:128" x14ac:dyDescent="0.25">
@@ -39534,10 +39534,10 @@
         <v>1</v>
       </c>
       <c r="DW96" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX96" t="s">
-        <v>218</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:128" x14ac:dyDescent="0.25">
@@ -39920,10 +39920,10 @@
         <v>1</v>
       </c>
       <c r="DW97" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX97" t="s">
-        <v>219</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.25">
@@ -40306,10 +40306,10 @@
         <v>0</v>
       </c>
       <c r="DW98" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX98" t="s">
-        <v>220</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:128" x14ac:dyDescent="0.25">
@@ -40692,10 +40692,10 @@
         <v>0</v>
       </c>
       <c r="DW99" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX99" t="s">
-        <v>221</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.25">
@@ -41078,10 +41078,10 @@
         <v>1</v>
       </c>
       <c r="DW100" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX100" t="s">
-        <v>222</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.25">
@@ -41464,10 +41464,10 @@
         <v>1</v>
       </c>
       <c r="DW101" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX101" t="s">
-        <v>223</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -41480,395 +41480,395 @@
   <dimension ref="A1:DX101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="DV12" sqref="DV12"/>
+      <selection activeCell="G1" sqref="G1:DT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" t="s">
+        <v>220</v>
+      </c>
+      <c r="P1" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>222</v>
+      </c>
+      <c r="R1" t="s">
+        <v>223</v>
+      </c>
+      <c r="S1" t="s">
+        <v>224</v>
+      </c>
+      <c r="T1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U1" t="s">
+        <v>226</v>
+      </c>
+      <c r="V1" t="s">
+        <v>227</v>
+      </c>
+      <c r="W1" t="s">
+        <v>228</v>
+      </c>
+      <c r="X1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>256</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>258</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>263</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>266</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>268</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>269</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>271</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>272</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>273</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>274</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>276</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>277</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>278</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>279</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>283</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>284</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>285</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>286</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>287</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>288</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>289</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>290</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>291</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>292</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>293</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>294</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>295</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>296</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>297</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>298</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>299</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>300</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>301</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>302</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>303</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>304</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>305</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>306</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>307</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>308</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>309</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>310</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>311</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>312</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>313</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>314</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>315</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>316</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>317</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>318</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>319</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>320</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>321</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>322</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>323</v>
+      </c>
+      <c r="DO1" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="DP1" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="DQ1" t="s">
         <v>326</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="DR1" t="s">
         <v>327</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="DS1" t="s">
+        <v>328</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>329</v>
+      </c>
+      <c r="DU1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="DV1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DW1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BG1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BU1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="BW1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BY1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="CA1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="CC1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="CE1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="CF1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="CG1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="CH1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="CI1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="CJ1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="CK1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="CL1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="CM1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="CN1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="CO1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="CP1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="CQ1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="CR1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="CS1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CT1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="CU1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="CV1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="CW1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="CX1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="CY1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="CZ1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="DA1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="DB1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="DC1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="DD1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="DE1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="DF1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="DG1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="DH1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="DI1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="DJ1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="DK1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="DL1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="DM1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="DN1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="DO1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="DP1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="DQ1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="DR1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="DS1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="DT1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="DU1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="DV1" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="DW1" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="DX1" s="2" t="s">
-        <v>329</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:128" x14ac:dyDescent="0.25">
@@ -42251,10 +42251,10 @@
         <v>0</v>
       </c>
       <c r="DW2" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX2" t="s">
-        <v>233</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:128" x14ac:dyDescent="0.25">
@@ -42637,10 +42637,10 @@
         <v>0</v>
       </c>
       <c r="DW3" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX3" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:128" x14ac:dyDescent="0.25">
@@ -43023,10 +43023,10 @@
         <v>1</v>
       </c>
       <c r="DW4" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX4" t="s">
-        <v>235</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:128" x14ac:dyDescent="0.25">
@@ -43409,10 +43409,10 @@
         <v>1</v>
       </c>
       <c r="DW5" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX5" t="s">
-        <v>236</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:128" x14ac:dyDescent="0.25">
@@ -43795,10 +43795,10 @@
         <v>0</v>
       </c>
       <c r="DW6" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX6" t="s">
-        <v>237</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:128" x14ac:dyDescent="0.25">
@@ -44181,10 +44181,10 @@
         <v>0</v>
       </c>
       <c r="DW7" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX7" t="s">
-        <v>238</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:128" x14ac:dyDescent="0.25">
@@ -44567,10 +44567,10 @@
         <v>0</v>
       </c>
       <c r="DW8" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX8" t="s">
-        <v>239</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:128" x14ac:dyDescent="0.25">
@@ -44953,10 +44953,10 @@
         <v>1</v>
       </c>
       <c r="DW9" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX9" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:128" x14ac:dyDescent="0.25">
@@ -45339,10 +45339,10 @@
         <v>1</v>
       </c>
       <c r="DW10" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX10" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:128" x14ac:dyDescent="0.25">
@@ -45725,10 +45725,10 @@
         <v>0</v>
       </c>
       <c r="DW11" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX11" t="s">
-        <v>242</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:128" x14ac:dyDescent="0.25">
@@ -46111,10 +46111,10 @@
         <v>0</v>
       </c>
       <c r="DW12" t="s">
+        <v>7</v>
+      </c>
+      <c r="DX12" t="s">
         <v>125</v>
-      </c>
-      <c r="DX12" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:128" x14ac:dyDescent="0.25">
@@ -46497,10 +46497,10 @@
         <v>0</v>
       </c>
       <c r="DW13" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX13" t="s">
-        <v>244</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:128" x14ac:dyDescent="0.25">
@@ -46883,10 +46883,10 @@
         <v>0</v>
       </c>
       <c r="DW14" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX14" t="s">
-        <v>245</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:128" x14ac:dyDescent="0.25">
@@ -47269,10 +47269,10 @@
         <v>0</v>
       </c>
       <c r="DW15" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX15" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:128" x14ac:dyDescent="0.25">
@@ -47655,10 +47655,10 @@
         <v>0</v>
       </c>
       <c r="DW16" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX16" t="s">
-        <v>247</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:128" x14ac:dyDescent="0.25">
@@ -48041,10 +48041,10 @@
         <v>0</v>
       </c>
       <c r="DW17" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX17" t="s">
-        <v>248</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:128" x14ac:dyDescent="0.25">
@@ -48427,10 +48427,10 @@
         <v>0</v>
       </c>
       <c r="DW18" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX18" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:128" x14ac:dyDescent="0.25">
@@ -48813,10 +48813,10 @@
         <v>0</v>
       </c>
       <c r="DW19" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX19" t="s">
-        <v>250</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:128" x14ac:dyDescent="0.25">
@@ -49199,10 +49199,10 @@
         <v>1</v>
       </c>
       <c r="DW20" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX20" t="s">
-        <v>251</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:128" x14ac:dyDescent="0.25">
@@ -49585,10 +49585,10 @@
         <v>1</v>
       </c>
       <c r="DW21" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX21" t="s">
-        <v>252</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:128" x14ac:dyDescent="0.25">
@@ -49971,10 +49971,10 @@
         <v>1</v>
       </c>
       <c r="DW22" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX22" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:128" x14ac:dyDescent="0.25">
@@ -50357,10 +50357,10 @@
         <v>1</v>
       </c>
       <c r="DW23" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX23" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:128" x14ac:dyDescent="0.25">
@@ -50743,10 +50743,10 @@
         <v>0</v>
       </c>
       <c r="DW24" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX24" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:128" x14ac:dyDescent="0.25">
@@ -51129,10 +51129,10 @@
         <v>0</v>
       </c>
       <c r="DW25" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX25" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:128" x14ac:dyDescent="0.25">
@@ -51515,10 +51515,10 @@
         <v>0</v>
       </c>
       <c r="DW26" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX26" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:128" x14ac:dyDescent="0.25">
@@ -51901,10 +51901,10 @@
         <v>0</v>
       </c>
       <c r="DW27" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX27" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:128" x14ac:dyDescent="0.25">
@@ -52287,10 +52287,10 @@
         <v>0</v>
       </c>
       <c r="DW28" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX28" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:128" x14ac:dyDescent="0.25">
@@ -52673,10 +52673,10 @@
         <v>1</v>
       </c>
       <c r="DW29" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX29" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:128" x14ac:dyDescent="0.25">
@@ -53059,10 +53059,10 @@
         <v>1</v>
       </c>
       <c r="DW30" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX30" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:128" x14ac:dyDescent="0.25">
@@ -53445,10 +53445,10 @@
         <v>0</v>
       </c>
       <c r="DW31" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX31" t="s">
-        <v>253</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:128" x14ac:dyDescent="0.25">
@@ -53831,10 +53831,10 @@
         <v>0</v>
       </c>
       <c r="DW32" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX32" t="s">
-        <v>254</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:128" x14ac:dyDescent="0.25">
@@ -54217,10 +54217,10 @@
         <v>1</v>
       </c>
       <c r="DW33" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX33" t="s">
-        <v>255</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:128" x14ac:dyDescent="0.25">
@@ -54603,10 +54603,10 @@
         <v>0</v>
       </c>
       <c r="DW34" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX34" t="s">
-        <v>256</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:128" x14ac:dyDescent="0.25">
@@ -54989,10 +54989,10 @@
         <v>0</v>
       </c>
       <c r="DW35" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX35" t="s">
-        <v>257</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:128" x14ac:dyDescent="0.25">
@@ -55375,10 +55375,10 @@
         <v>0</v>
       </c>
       <c r="DW36" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX36" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:128" x14ac:dyDescent="0.25">
@@ -55761,10 +55761,10 @@
         <v>1</v>
       </c>
       <c r="DW37" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX37" t="s">
-        <v>259</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:128" x14ac:dyDescent="0.25">
@@ -56147,10 +56147,10 @@
         <v>0</v>
       </c>
       <c r="DW38" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX38" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:128" x14ac:dyDescent="0.25">
@@ -56533,10 +56533,10 @@
         <v>1</v>
       </c>
       <c r="DW39" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX39" t="s">
-        <v>261</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:128" x14ac:dyDescent="0.25">
@@ -56919,10 +56919,10 @@
         <v>1</v>
       </c>
       <c r="DW40" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX40" t="s">
-        <v>262</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:128" x14ac:dyDescent="0.25">
@@ -57305,10 +57305,10 @@
         <v>1</v>
       </c>
       <c r="DW41" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX41" t="s">
-        <v>263</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:128" x14ac:dyDescent="0.25">
@@ -57691,10 +57691,10 @@
         <v>1</v>
       </c>
       <c r="DW42" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX42" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:128" x14ac:dyDescent="0.25">
@@ -58077,10 +58077,10 @@
         <v>0</v>
       </c>
       <c r="DW43" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX43" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:128" x14ac:dyDescent="0.25">
@@ -58463,10 +58463,10 @@
         <v>0</v>
       </c>
       <c r="DW44" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX44" t="s">
-        <v>266</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:128" x14ac:dyDescent="0.25">
@@ -58849,10 +58849,10 @@
         <v>1</v>
       </c>
       <c r="DW45" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX45" t="s">
-        <v>267</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:128" x14ac:dyDescent="0.25">
@@ -59235,10 +59235,10 @@
         <v>0</v>
       </c>
       <c r="DW46" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX46" t="s">
-        <v>268</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:128" x14ac:dyDescent="0.25">
@@ -59621,10 +59621,10 @@
         <v>1</v>
       </c>
       <c r="DW47" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX47" t="s">
-        <v>269</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:128" x14ac:dyDescent="0.25">
@@ -60007,10 +60007,10 @@
         <v>1</v>
       </c>
       <c r="DW48" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX48" t="s">
-        <v>270</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:128" x14ac:dyDescent="0.25">
@@ -60393,10 +60393,10 @@
         <v>0</v>
       </c>
       <c r="DW49" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX49" t="s">
-        <v>271</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:128" x14ac:dyDescent="0.25">
@@ -60779,10 +60779,10 @@
         <v>1</v>
       </c>
       <c r="DW50" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX50" t="s">
-        <v>272</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:128" x14ac:dyDescent="0.25">
@@ -61165,10 +61165,10 @@
         <v>0</v>
       </c>
       <c r="DW51" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX51" t="s">
-        <v>273</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:128" x14ac:dyDescent="0.25">
@@ -61551,10 +61551,10 @@
         <v>0</v>
       </c>
       <c r="DW52" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX52" t="s">
-        <v>274</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:128" x14ac:dyDescent="0.25">
@@ -61937,10 +61937,10 @@
         <v>1</v>
       </c>
       <c r="DW53" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX53" t="s">
-        <v>275</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:128" x14ac:dyDescent="0.25">
@@ -62323,10 +62323,10 @@
         <v>0</v>
       </c>
       <c r="DW54" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX54" t="s">
-        <v>276</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:128" x14ac:dyDescent="0.25">
@@ -62709,10 +62709,10 @@
         <v>0</v>
       </c>
       <c r="DW55" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX55" t="s">
-        <v>277</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:128" x14ac:dyDescent="0.25">
@@ -63095,10 +63095,10 @@
         <v>0</v>
       </c>
       <c r="DW56" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX56" t="s">
-        <v>278</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:128" x14ac:dyDescent="0.25">
@@ -63481,10 +63481,10 @@
         <v>1</v>
       </c>
       <c r="DW57" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX57" t="s">
-        <v>279</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:128" x14ac:dyDescent="0.25">
@@ -63867,10 +63867,10 @@
         <v>0</v>
       </c>
       <c r="DW58" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX58" t="s">
-        <v>280</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:128" x14ac:dyDescent="0.25">
@@ -64253,10 +64253,10 @@
         <v>1</v>
       </c>
       <c r="DW59" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX59" t="s">
-        <v>281</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:128" x14ac:dyDescent="0.25">
@@ -64639,10 +64639,10 @@
         <v>0</v>
       </c>
       <c r="DW60" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX60" t="s">
-        <v>282</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:128" x14ac:dyDescent="0.25">
@@ -65025,10 +65025,10 @@
         <v>1</v>
       </c>
       <c r="DW61" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX61" t="s">
-        <v>283</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:128" x14ac:dyDescent="0.25">
@@ -65411,10 +65411,10 @@
         <v>0</v>
       </c>
       <c r="DW62" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX62" t="s">
-        <v>284</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:128" x14ac:dyDescent="0.25">
@@ -65797,10 +65797,10 @@
         <v>0</v>
       </c>
       <c r="DW63" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX63" t="s">
-        <v>285</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:128" x14ac:dyDescent="0.25">
@@ -66183,10 +66183,10 @@
         <v>1</v>
       </c>
       <c r="DW64" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX64" t="s">
-        <v>286</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:128" x14ac:dyDescent="0.25">
@@ -66569,10 +66569,10 @@
         <v>1</v>
       </c>
       <c r="DW65" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX65" t="s">
-        <v>287</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:128" x14ac:dyDescent="0.25">
@@ -66955,10 +66955,10 @@
         <v>0</v>
       </c>
       <c r="DW66" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX66" t="s">
-        <v>288</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:128" x14ac:dyDescent="0.25">
@@ -67341,10 +67341,10 @@
         <v>1</v>
       </c>
       <c r="DW67" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX67" t="s">
-        <v>289</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:128" x14ac:dyDescent="0.25">
@@ -67727,10 +67727,10 @@
         <v>0</v>
       </c>
       <c r="DW68" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX68" t="s">
-        <v>290</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:128" x14ac:dyDescent="0.25">
@@ -68113,10 +68113,10 @@
         <v>0</v>
       </c>
       <c r="DW69" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX69" t="s">
-        <v>291</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:128" x14ac:dyDescent="0.25">
@@ -68499,10 +68499,10 @@
         <v>1</v>
       </c>
       <c r="DW70" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX70" t="s">
-        <v>292</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:128" x14ac:dyDescent="0.25">
@@ -68885,10 +68885,10 @@
         <v>1</v>
       </c>
       <c r="DW71" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX71" t="s">
-        <v>293</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:128" x14ac:dyDescent="0.25">
@@ -69271,10 +69271,10 @@
         <v>0</v>
       </c>
       <c r="DW72" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX72" t="s">
-        <v>294</v>
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:128" x14ac:dyDescent="0.25">
@@ -69657,10 +69657,10 @@
         <v>1</v>
       </c>
       <c r="DW73" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX73" t="s">
-        <v>295</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:128" x14ac:dyDescent="0.25">
@@ -70043,10 +70043,10 @@
         <v>0</v>
       </c>
       <c r="DW74" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX74" t="s">
-        <v>296</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:128" x14ac:dyDescent="0.25">
@@ -70429,10 +70429,10 @@
         <v>1</v>
       </c>
       <c r="DW75" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX75" t="s">
-        <v>297</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:128" x14ac:dyDescent="0.25">
@@ -70815,10 +70815,10 @@
         <v>1</v>
       </c>
       <c r="DW76" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX76" t="s">
-        <v>298</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:128" x14ac:dyDescent="0.25">
@@ -71201,10 +71201,10 @@
         <v>1</v>
       </c>
       <c r="DW77" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX77" t="s">
-        <v>299</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:128" x14ac:dyDescent="0.25">
@@ -71587,10 +71587,10 @@
         <v>0</v>
       </c>
       <c r="DW78" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX78" t="s">
-        <v>300</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:128" x14ac:dyDescent="0.25">
@@ -71973,10 +71973,10 @@
         <v>0</v>
       </c>
       <c r="DW79" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX79" t="s">
-        <v>301</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:128" x14ac:dyDescent="0.25">
@@ -72359,10 +72359,10 @@
         <v>0</v>
       </c>
       <c r="DW80" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX80" t="s">
-        <v>302</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:128" x14ac:dyDescent="0.25">
@@ -72745,10 +72745,10 @@
         <v>0</v>
       </c>
       <c r="DW81" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX81" t="s">
-        <v>303</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:128" x14ac:dyDescent="0.25">
@@ -73131,10 +73131,10 @@
         <v>0</v>
       </c>
       <c r="DW82" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX82" t="s">
-        <v>304</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:128" x14ac:dyDescent="0.25">
@@ -73517,10 +73517,10 @@
         <v>0</v>
       </c>
       <c r="DW83" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX83" t="s">
-        <v>305</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:128" x14ac:dyDescent="0.25">
@@ -73903,10 +73903,10 @@
         <v>0</v>
       </c>
       <c r="DW84" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX84" t="s">
-        <v>306</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:128" x14ac:dyDescent="0.25">
@@ -74289,10 +74289,10 @@
         <v>1</v>
       </c>
       <c r="DW85" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX85" t="s">
-        <v>307</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:128" x14ac:dyDescent="0.25">
@@ -74675,10 +74675,10 @@
         <v>0</v>
       </c>
       <c r="DW86" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX86" t="s">
-        <v>308</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:128" x14ac:dyDescent="0.25">
@@ -75061,10 +75061,10 @@
         <v>0</v>
       </c>
       <c r="DW87" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX87" t="s">
-        <v>309</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:128" x14ac:dyDescent="0.25">
@@ -75447,10 +75447,10 @@
         <v>0</v>
       </c>
       <c r="DW88" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX88" t="s">
-        <v>310</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:128" x14ac:dyDescent="0.25">
@@ -75833,10 +75833,10 @@
         <v>0</v>
       </c>
       <c r="DW89" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX89" t="s">
-        <v>311</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:128" x14ac:dyDescent="0.25">
@@ -76219,10 +76219,10 @@
         <v>0</v>
       </c>
       <c r="DW90" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX90" t="s">
-        <v>312</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:128" x14ac:dyDescent="0.25">
@@ -76605,10 +76605,10 @@
         <v>0</v>
       </c>
       <c r="DW91" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX91" t="s">
-        <v>313</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:128" x14ac:dyDescent="0.25">
@@ -76991,10 +76991,10 @@
         <v>1</v>
       </c>
       <c r="DW92" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX92" t="s">
-        <v>314</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:128" x14ac:dyDescent="0.25">
@@ -77377,10 +77377,10 @@
         <v>0</v>
       </c>
       <c r="DW93" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX93" t="s">
-        <v>315</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:128" x14ac:dyDescent="0.25">
@@ -77763,10 +77763,10 @@
         <v>1</v>
       </c>
       <c r="DW94" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX94" t="s">
-        <v>316</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:128" x14ac:dyDescent="0.25">
@@ -78149,10 +78149,10 @@
         <v>0</v>
       </c>
       <c r="DW95" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX95" t="s">
-        <v>317</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:128" x14ac:dyDescent="0.25">
@@ -78535,10 +78535,10 @@
         <v>0</v>
       </c>
       <c r="DW96" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX96" t="s">
-        <v>318</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:128" x14ac:dyDescent="0.25">
@@ -78921,10 +78921,10 @@
         <v>1</v>
       </c>
       <c r="DW97" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX97" t="s">
-        <v>319</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:128" x14ac:dyDescent="0.25">
@@ -79307,10 +79307,10 @@
         <v>0</v>
       </c>
       <c r="DW98" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX98" t="s">
-        <v>320</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:128" x14ac:dyDescent="0.25">
@@ -79693,10 +79693,10 @@
         <v>0</v>
       </c>
       <c r="DW99" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX99" t="s">
-        <v>321</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:128" x14ac:dyDescent="0.25">
@@ -80079,10 +80079,10 @@
         <v>1</v>
       </c>
       <c r="DW100" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="DX100" t="s">
-        <v>322</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:128" x14ac:dyDescent="0.25">
@@ -80465,10 +80465,10 @@
         <v>0</v>
       </c>
       <c r="DW101" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="DX101" t="s">
-        <v>323</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
